--- a/public/sample_sheet/Holiday_sample_sheet.xlsx
+++ b/public/sample_sheet/Holiday_sample_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">occasion</t>
   </si>
   <si>
-    <t xml:space="preserve">date_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_to</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">Gandhi Jayanti</t>
@@ -40,7 +37,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -128,31 +125,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,25 +158,20 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>42645</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>42645</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
